--- a/covid-ed-ig/ValueSet-2.16.840.1.113883.3.3616.200.110.102.6152.xlsx
+++ b/covid-ed-ig/ValueSet-2.16.840.1.113883.3.3616.200.110.102.6152.xlsx
@@ -73,7 +73,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-2.16.840.1.113883.3.3616.200.110.102.6152.xlsx
+++ b/covid-ed-ig/ValueSet-2.16.840.1.113883.3.3616.200.110.102.6152.xlsx
@@ -73,7 +73,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
